--- a/spec/test_data/census_employee_import/DCHL Employee Census.xlsx
+++ b/spec/test_data/census_employee_import/DCHL Employee Census.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="488"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16120" tabRatio="488"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Census" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Last Name</t>
   </si>
@@ -213,48 +213,12 @@
     <t>employee_relationship</t>
   </si>
   <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>plan_year</t>
   </si>
   <si>
     <t xml:space="preserve"> Plan Year (Optional)</t>
   </si>
   <si>
-    <t>111@gmail.com</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>runner1</t>
-  </si>
-  <si>
-    <t>road1</t>
-  </si>
-  <si>
-    <t>panther1</t>
-  </si>
-  <si>
-    <t>pink1</t>
-  </si>
-  <si>
     <t>address_1</t>
   </si>
   <si>
@@ -267,21 +231,9 @@
     <t>zip</t>
   </si>
   <si>
-    <t>100 NY Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington </t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>Address Kind(Optional)</t>
   </si>
   <si>
@@ -295,15 +247,6 @@
   </si>
   <si>
     <t>Zip(Optional)</t>
-  </si>
-  <si>
-    <t>111111110</t>
-  </si>
-  <si>
-    <t>111229990</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <r>
@@ -322,6 +265,66 @@
       </rPr>
       <t>(to match family members to the EE)(optional)</t>
     </r>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>panther1</t>
+  </si>
+  <si>
+    <t>pink1</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>111@gmail.com</t>
+  </si>
+  <si>
+    <t>111111110</t>
+  </si>
+  <si>
+    <t>bf1</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>100 NY Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>runner1</t>
+  </si>
+  <si>
+    <t>road1</t>
+  </si>
+  <si>
+    <t>111-22-9990</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -916,14 +919,14 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -988,9 +991,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1011,12 +1011,18 @@
     <xf numFmtId="14" fontId="22" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="73" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="78" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="79">
@@ -1060,11 +1066,11 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="36"/>
     <cellStyle name="Heading 1 2" xfId="37"/>
     <cellStyle name="Heading 2 2" xfId="38"/>
@@ -1078,7 +1084,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="41"/>
     <cellStyle name="Hyperlink 3" xfId="42"/>
     <cellStyle name="Hyperlink 4" xfId="43"/>
@@ -1100,7 +1106,18 @@
     <cellStyle name="Total 2" xfId="55"/>
     <cellStyle name="Warning Text 2" xfId="56"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1404,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T310"/>
+  <dimension ref="A1:T371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1419,12 +1436,12 @@
     <col min="4" max="4" width="15.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="13" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="26" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="16" customWidth="1"/>
     <col min="9" max="9" width="12" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="26" customWidth="1"/>
     <col min="11" max="12" width="11.33203125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="26" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="17" customWidth="1"/>
     <col min="15" max="16" width="18.5" style="14" customWidth="1"/>
     <col min="17" max="17" width="17.83203125" style="14" customWidth="1"/>
@@ -1443,7 +1460,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="19"/>
@@ -1499,142 +1516,141 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="56">
+      <c r="A3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="34" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="56">
-      <c r="A3" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="35" t="s">
+      <c r="G4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I4" s="5">
         <v>14699</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K4" s="6">
         <v>40695</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="8" t="str">
-        <f>+IF(ISBLANK($A4),"","bf1")</f>
-        <v>bf1</v>
+        <v>45</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="O4" s="9">
         <v>2016</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T4" s="9">
         <v>20001</v>
@@ -1642,32 +1658,32 @@
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="5">
         <v>36249</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>35</v>
+      <c r="J5" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="36"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
@@ -1684,10 +1700,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="24"/>
-      <c r="N6" s="8" t="str">
-        <f t="shared" ref="N6:N65" si="0">+IF(ISBLANK($A6),"","Main Benefit Group")</f>
-        <v/>
-      </c>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="2"/>
@@ -1703,10 +1716,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="2"/>
@@ -1722,10 +1732,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="2"/>
@@ -1741,10 +1748,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="2"/>
@@ -1760,10 +1764,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="2"/>
@@ -1779,10 +1780,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="2"/>
@@ -1798,10 +1796,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="2"/>
@@ -1817,10 +1812,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="24"/>
-      <c r="N13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="2"/>
@@ -1836,10 +1828,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="24"/>
-      <c r="N14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="2"/>
@@ -1855,10 +1844,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="2"/>
@@ -1874,10 +1860,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="24"/>
-      <c r="N16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="2"/>
@@ -1893,10 +1876,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="2"/>
@@ -1912,10 +1892,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="2"/>
@@ -1931,10 +1908,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="2"/>
@@ -1950,10 +1924,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="2"/>
@@ -1969,10 +1940,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="2"/>
@@ -1988,10 +1956,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="2"/>
@@ -2007,10 +1972,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="2"/>
@@ -2026,10 +1988,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="2"/>
@@ -2045,10 +2004,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="2"/>
@@ -2064,10 +2020,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="2"/>
@@ -2083,10 +2036,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="2"/>
@@ -2102,10 +2052,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="24"/>
-      <c r="N28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="2"/>
@@ -2121,10 +2068,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="2"/>
@@ -2140,10 +2084,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="24"/>
-      <c r="N30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="2"/>
@@ -2159,10 +2100,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="2"/>
@@ -2178,10 +2116,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="24"/>
-      <c r="N32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="2"/>
@@ -2197,10 +2132,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="2"/>
@@ -2216,10 +2148,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="24"/>
-      <c r="N34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="2"/>
@@ -2235,10 +2164,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="2"/>
@@ -2254,10 +2180,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="24"/>
-      <c r="N36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="2"/>
@@ -2273,10 +2196,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="24"/>
-      <c r="N37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="2"/>
@@ -2292,10 +2212,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="2"/>
@@ -2311,10 +2228,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="2"/>
@@ -2330,10 +2244,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="24"/>
-      <c r="N40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="2"/>
@@ -2349,10 +2260,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="2"/>
@@ -2368,10 +2276,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="2"/>
@@ -2387,10 +2292,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="2"/>
@@ -2406,10 +2308,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="24"/>
-      <c r="N44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="2"/>
@@ -2425,10 +2324,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="24"/>
-      <c r="N45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="2"/>
@@ -2444,10 +2340,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="24"/>
-      <c r="N46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="2"/>
@@ -2463,10 +2356,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="24"/>
-      <c r="N47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="2"/>
@@ -2482,10 +2372,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="24"/>
-      <c r="N48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="2"/>
@@ -2501,10 +2388,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="24"/>
-      <c r="N49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="2"/>
@@ -2520,10 +2404,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="24"/>
-      <c r="N50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="2"/>
@@ -2539,10 +2420,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="24"/>
-      <c r="N51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="2"/>
@@ -2558,10 +2436,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="24"/>
-      <c r="N52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N52" s="8"/>
     </row>
     <row r="53" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="2"/>
@@ -2577,10 +2452,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="24"/>
-      <c r="N53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N53" s="8"/>
     </row>
     <row r="54" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="2"/>
@@ -2596,10 +2468,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="24"/>
-      <c r="N54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="2"/>
@@ -2615,10 +2484,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="24"/>
-      <c r="N55" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="2"/>
@@ -2634,10 +2500,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="24"/>
-      <c r="N56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N56" s="8"/>
     </row>
     <row r="57" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="2"/>
@@ -2653,10 +2516,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="24"/>
-      <c r="N57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N57" s="8"/>
     </row>
     <row r="58" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="2"/>
@@ -2672,10 +2532,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="2"/>
@@ -2691,10 +2548,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="2"/>
@@ -2710,10 +2564,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="24"/>
-      <c r="N60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="2"/>
@@ -2729,10 +2580,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="24"/>
-      <c r="N61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="2"/>
@@ -2748,10 +2596,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="24"/>
-      <c r="N62" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="2"/>
@@ -2767,10 +2612,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="24"/>
-      <c r="N63" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="2"/>
@@ -2786,10 +2628,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="24"/>
-      <c r="N64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N64" s="8"/>
     </row>
     <row r="65" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="2"/>
@@ -2805,10 +2644,7 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="24"/>
-      <c r="N65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="N65" s="8"/>
     </row>
     <row r="66" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="2"/>
@@ -2824,10 +2660,7 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="24"/>
-      <c r="N66" s="8" t="str">
-        <f t="shared" ref="N66:N129" si="1">+IF(ISBLANK($A66),"","Main Benefit Group")</f>
-        <v/>
-      </c>
+      <c r="N66" s="8"/>
     </row>
     <row r="67" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="2"/>
@@ -2843,10 +2676,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="24"/>
-      <c r="N67" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N67" s="8"/>
     </row>
     <row r="68" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="2"/>
@@ -2862,10 +2692,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="24"/>
-      <c r="N68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N68" s="8"/>
     </row>
     <row r="69" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="2"/>
@@ -2881,10 +2708,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="24"/>
-      <c r="N69" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="2"/>
@@ -2900,10 +2724,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="24"/>
-      <c r="N70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="2"/>
@@ -2919,10 +2740,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="24"/>
-      <c r="N71" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="2"/>
@@ -2938,10 +2756,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="24"/>
-      <c r="N72" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N72" s="8"/>
     </row>
     <row r="73" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="2"/>
@@ -2957,10 +2772,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="24"/>
-      <c r="N73" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="2"/>
@@ -2976,10 +2788,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="24"/>
-      <c r="N74" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="2"/>
@@ -2995,10 +2804,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="24"/>
-      <c r="N75" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="2"/>
@@ -3014,10 +2820,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="24"/>
-      <c r="N76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="2"/>
@@ -3033,10 +2836,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="24"/>
-      <c r="N77" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N77" s="8"/>
     </row>
     <row r="78" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="2"/>
@@ -3052,10 +2852,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="24"/>
-      <c r="N78" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="2"/>
@@ -3071,10 +2868,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="24"/>
-      <c r="N79" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="2"/>
@@ -3090,10 +2884,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="24"/>
-      <c r="N80" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="2"/>
@@ -3109,10 +2900,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="24"/>
-      <c r="N81" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="2"/>
@@ -3128,10 +2916,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="24"/>
-      <c r="N82" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="2"/>
@@ -3147,10 +2932,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="24"/>
-      <c r="N83" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="2"/>
@@ -3166,10 +2948,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="24"/>
-      <c r="N84" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="2"/>
@@ -3185,10 +2964,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="24"/>
-      <c r="N85" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="2"/>
@@ -3204,10 +2980,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="24"/>
-      <c r="N86" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="2"/>
@@ -3223,10 +2996,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="24"/>
-      <c r="N87" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="2"/>
@@ -3242,10 +3012,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="24"/>
-      <c r="N88" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="2"/>
@@ -3261,10 +3028,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="24"/>
-      <c r="N89" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N89" s="8"/>
     </row>
     <row r="90" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="2"/>
@@ -3280,10 +3044,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="24"/>
-      <c r="N90" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="2"/>
@@ -3299,10 +3060,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="24"/>
-      <c r="N91" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="2"/>
@@ -3318,10 +3076,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="24"/>
-      <c r="N92" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N92" s="8"/>
     </row>
     <row r="93" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="2"/>
@@ -3337,10 +3092,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="24"/>
-      <c r="N93" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N93" s="8"/>
     </row>
     <row r="94" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="2"/>
@@ -3356,10 +3108,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="24"/>
-      <c r="N94" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N94" s="8"/>
     </row>
     <row r="95" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="2"/>
@@ -3375,10 +3124,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="24"/>
-      <c r="N95" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="2"/>
@@ -3394,10 +3140,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="24"/>
-      <c r="N96" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N96" s="8"/>
     </row>
     <row r="97" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="2"/>
@@ -3413,10 +3156,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="24"/>
-      <c r="N97" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N97" s="8"/>
     </row>
     <row r="98" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="2"/>
@@ -3432,10 +3172,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="24"/>
-      <c r="N98" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N98" s="8"/>
     </row>
     <row r="99" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="2"/>
@@ -3451,10 +3188,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="24"/>
-      <c r="N99" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N99" s="8"/>
     </row>
     <row r="100" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="2"/>
@@ -3470,10 +3204,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="24"/>
-      <c r="N100" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N100" s="8"/>
     </row>
     <row r="101" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="2"/>
@@ -3489,10 +3220,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="24"/>
-      <c r="N101" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N101" s="8"/>
     </row>
     <row r="102" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="2"/>
@@ -3508,10 +3236,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="24"/>
-      <c r="N102" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N102" s="8"/>
     </row>
     <row r="103" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="2"/>
@@ -3527,10 +3252,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="24"/>
-      <c r="N103" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N103" s="8"/>
     </row>
     <row r="104" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="2"/>
@@ -3546,10 +3268,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="24"/>
-      <c r="N104" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N104" s="8"/>
     </row>
     <row r="105" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="2"/>
@@ -3565,10 +3284,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="24"/>
-      <c r="N105" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N105" s="8"/>
     </row>
     <row r="106" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="2"/>
@@ -3584,10 +3300,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="24"/>
-      <c r="N106" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N106" s="8"/>
     </row>
     <row r="107" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="2"/>
@@ -3603,10 +3316,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="24"/>
-      <c r="N107" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N107" s="8"/>
     </row>
     <row r="108" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="2"/>
@@ -3622,10 +3332,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="24"/>
-      <c r="N108" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N108" s="8"/>
     </row>
     <row r="109" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="2"/>
@@ -3641,10 +3348,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="24"/>
-      <c r="N109" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="2"/>
@@ -3660,10 +3364,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="24"/>
-      <c r="N110" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N110" s="8"/>
     </row>
     <row r="111" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="2"/>
@@ -3679,10 +3380,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="24"/>
-      <c r="N111" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N111" s="8"/>
     </row>
     <row r="112" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="2"/>
@@ -3698,10 +3396,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="24"/>
-      <c r="N112" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="2"/>
@@ -3717,10 +3412,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="24"/>
-      <c r="N113" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N113" s="8"/>
     </row>
     <row r="114" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="2"/>
@@ -3736,10 +3428,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="24"/>
-      <c r="N114" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N114" s="8"/>
     </row>
     <row r="115" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="2"/>
@@ -3755,10 +3444,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="24"/>
-      <c r="N115" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N115" s="8"/>
     </row>
     <row r="116" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="2"/>
@@ -3774,10 +3460,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="24"/>
-      <c r="N116" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N116" s="8"/>
     </row>
     <row r="117" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="2"/>
@@ -3793,10 +3476,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="24"/>
-      <c r="N117" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N117" s="8"/>
     </row>
     <row r="118" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="2"/>
@@ -3812,10 +3492,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="24"/>
-      <c r="N118" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N118" s="8"/>
     </row>
     <row r="119" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="2"/>
@@ -3831,10 +3508,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="24"/>
-      <c r="N119" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N119" s="8"/>
     </row>
     <row r="120" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="2"/>
@@ -3850,10 +3524,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="24"/>
-      <c r="N120" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N120" s="8"/>
     </row>
     <row r="121" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="2"/>
@@ -3869,10 +3540,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="24"/>
-      <c r="N121" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N121" s="8"/>
     </row>
     <row r="122" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="2"/>
@@ -3888,10 +3556,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="24"/>
-      <c r="N122" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N122" s="8"/>
     </row>
     <row r="123" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="2"/>
@@ -3907,10 +3572,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="24"/>
-      <c r="N123" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N123" s="8"/>
     </row>
     <row r="124" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="2"/>
@@ -3926,10 +3588,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="24"/>
-      <c r="N124" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N124" s="8"/>
     </row>
     <row r="125" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="2"/>
@@ -3945,10 +3604,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="24"/>
-      <c r="N125" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N125" s="8"/>
     </row>
     <row r="126" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="2"/>
@@ -3964,10 +3620,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="24"/>
-      <c r="N126" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N126" s="8"/>
     </row>
     <row r="127" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="2"/>
@@ -3983,10 +3636,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="24"/>
-      <c r="N127" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N127" s="8"/>
     </row>
     <row r="128" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="2"/>
@@ -4002,10 +3652,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="24"/>
-      <c r="N128" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N128" s="8"/>
     </row>
     <row r="129" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="2"/>
@@ -4021,10 +3668,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="24"/>
-      <c r="N129" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="N129" s="8"/>
     </row>
     <row r="130" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="2"/>
@@ -4040,10 +3684,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="24"/>
-      <c r="N130" s="8" t="str">
-        <f t="shared" ref="N130:N193" si="2">+IF(ISBLANK($A130),"","Main Benefit Group")</f>
-        <v/>
-      </c>
+      <c r="N130" s="8"/>
     </row>
     <row r="131" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="2"/>
@@ -4059,10 +3700,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="24"/>
-      <c r="N131" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N131" s="8"/>
     </row>
     <row r="132" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="2"/>
@@ -4078,10 +3716,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="24"/>
-      <c r="N132" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="2"/>
@@ -4097,10 +3732,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="24"/>
-      <c r="N133" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N133" s="8"/>
     </row>
     <row r="134" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="2"/>
@@ -4116,10 +3748,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="24"/>
-      <c r="N134" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N134" s="8"/>
     </row>
     <row r="135" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="2"/>
@@ -4135,10 +3764,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="24"/>
-      <c r="N135" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N135" s="8"/>
     </row>
     <row r="136" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="2"/>
@@ -4154,10 +3780,7 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="24"/>
-      <c r="N136" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N136" s="8"/>
     </row>
     <row r="137" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="2"/>
@@ -4173,10 +3796,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="24"/>
-      <c r="N137" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N137" s="8"/>
     </row>
     <row r="138" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="2"/>
@@ -4192,10 +3812,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="24"/>
-      <c r="N138" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N138" s="8"/>
     </row>
     <row r="139" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="2"/>
@@ -4211,10 +3828,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="24"/>
-      <c r="N139" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N139" s="8"/>
     </row>
     <row r="140" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="2"/>
@@ -4230,10 +3844,7 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="24"/>
-      <c r="N140" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N140" s="8"/>
     </row>
     <row r="141" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="2"/>
@@ -4249,10 +3860,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="24"/>
-      <c r="N141" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N141" s="8"/>
     </row>
     <row r="142" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="2"/>
@@ -4268,10 +3876,7 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="24"/>
-      <c r="N142" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N142" s="8"/>
     </row>
     <row r="143" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="2"/>
@@ -4287,10 +3892,7 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="24"/>
-      <c r="N143" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N143" s="8"/>
     </row>
     <row r="144" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="2"/>
@@ -4306,10 +3908,7 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="24"/>
-      <c r="N144" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N144" s="8"/>
     </row>
     <row r="145" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="2"/>
@@ -4325,10 +3924,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="24"/>
-      <c r="N145" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N145" s="8"/>
     </row>
     <row r="146" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="2"/>
@@ -4344,10 +3940,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="24"/>
-      <c r="N146" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N146" s="8"/>
     </row>
     <row r="147" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="2"/>
@@ -4363,10 +3956,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="24"/>
-      <c r="N147" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N147" s="8"/>
     </row>
     <row r="148" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="2"/>
@@ -4382,10 +3972,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="24"/>
-      <c r="N148" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N148" s="8"/>
     </row>
     <row r="149" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="2"/>
@@ -4401,10 +3988,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="24"/>
-      <c r="N149" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N149" s="8"/>
     </row>
     <row r="150" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="2"/>
@@ -4420,10 +4004,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="24"/>
-      <c r="N150" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N150" s="8"/>
     </row>
     <row r="151" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="2"/>
@@ -4439,10 +4020,7 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="24"/>
-      <c r="N151" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N151" s="8"/>
     </row>
     <row r="152" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="2"/>
@@ -4458,10 +4036,7 @@
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="24"/>
-      <c r="N152" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N152" s="8"/>
     </row>
     <row r="153" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="2"/>
@@ -4477,10 +4052,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="24"/>
-      <c r="N153" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N153" s="8"/>
     </row>
     <row r="154" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="2"/>
@@ -4496,10 +4068,7 @@
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="24"/>
-      <c r="N154" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N154" s="8"/>
     </row>
     <row r="155" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="2"/>
@@ -4515,10 +4084,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="24"/>
-      <c r="N155" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N155" s="8"/>
     </row>
     <row r="156" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="2"/>
@@ -4534,10 +4100,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="24"/>
-      <c r="N156" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N156" s="8"/>
     </row>
     <row r="157" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="2"/>
@@ -4553,10 +4116,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="24"/>
-      <c r="N157" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N157" s="8"/>
     </row>
     <row r="158" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="2"/>
@@ -4572,10 +4132,7 @@
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="24"/>
-      <c r="N158" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N158" s="8"/>
     </row>
     <row r="159" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="2"/>
@@ -4591,10 +4148,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="24"/>
-      <c r="N159" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N159" s="8"/>
     </row>
     <row r="160" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="2"/>
@@ -4610,10 +4164,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="24"/>
-      <c r="N160" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N160" s="8"/>
     </row>
     <row r="161" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="2"/>
@@ -4629,10 +4180,7 @@
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="24"/>
-      <c r="N161" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N161" s="8"/>
     </row>
     <row r="162" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="2"/>
@@ -4648,10 +4196,7 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="24"/>
-      <c r="N162" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N162" s="8"/>
     </row>
     <row r="163" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="2"/>
@@ -4667,10 +4212,7 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="24"/>
-      <c r="N163" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N163" s="8"/>
     </row>
     <row r="164" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="2"/>
@@ -4686,10 +4228,7 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="24"/>
-      <c r="N164" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N164" s="8"/>
     </row>
     <row r="165" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="2"/>
@@ -4705,10 +4244,7 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="24"/>
-      <c r="N165" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N165" s="8"/>
     </row>
     <row r="166" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="2"/>
@@ -4724,10 +4260,7 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="24"/>
-      <c r="N166" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N166" s="8"/>
     </row>
     <row r="167" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="2"/>
@@ -4743,10 +4276,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="24"/>
-      <c r="N167" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N167" s="8"/>
     </row>
     <row r="168" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="2"/>
@@ -4762,10 +4292,7 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="24"/>
-      <c r="N168" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N168" s="8"/>
     </row>
     <row r="169" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="2"/>
@@ -4781,10 +4308,7 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="24"/>
-      <c r="N169" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N169" s="8"/>
     </row>
     <row r="170" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="2"/>
@@ -4800,10 +4324,7 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="24"/>
-      <c r="N170" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N170" s="8"/>
     </row>
     <row r="171" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="2"/>
@@ -4819,10 +4340,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="24"/>
-      <c r="N171" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N171" s="8"/>
     </row>
     <row r="172" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="2"/>
@@ -4838,10 +4356,7 @@
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
       <c r="M172" s="24"/>
-      <c r="N172" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N172" s="8"/>
     </row>
     <row r="173" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="2"/>
@@ -4857,10 +4372,7 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="24"/>
-      <c r="N173" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N173" s="8"/>
     </row>
     <row r="174" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="2"/>
@@ -4876,10 +4388,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="24"/>
-      <c r="N174" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N174" s="8"/>
     </row>
     <row r="175" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="2"/>
@@ -4895,10 +4404,7 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="24"/>
-      <c r="N175" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N175" s="8"/>
     </row>
     <row r="176" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="2"/>
@@ -4914,10 +4420,7 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="24"/>
-      <c r="N176" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N176" s="8"/>
     </row>
     <row r="177" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="2"/>
@@ -4933,10 +4436,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="24"/>
-      <c r="N177" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N177" s="8"/>
     </row>
     <row r="178" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="2"/>
@@ -4952,10 +4452,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="24"/>
-      <c r="N178" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N178" s="8"/>
     </row>
     <row r="179" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="2"/>
@@ -4971,10 +4468,7 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="24"/>
-      <c r="N179" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N179" s="8"/>
     </row>
     <row r="180" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="2"/>
@@ -4990,10 +4484,7 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="24"/>
-      <c r="N180" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N180" s="8"/>
     </row>
     <row r="181" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="2"/>
@@ -5009,10 +4500,7 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="24"/>
-      <c r="N181" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N181" s="8"/>
     </row>
     <row r="182" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="2"/>
@@ -5028,10 +4516,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="24"/>
-      <c r="N182" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N182" s="8"/>
     </row>
     <row r="183" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="2"/>
@@ -5047,10 +4532,7 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="24"/>
-      <c r="N183" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N183" s="8"/>
     </row>
     <row r="184" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="2"/>
@@ -5066,10 +4548,7 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="24"/>
-      <c r="N184" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N184" s="8"/>
     </row>
     <row r="185" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="2"/>
@@ -5085,10 +4564,7 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="24"/>
-      <c r="N185" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N185" s="8"/>
     </row>
     <row r="186" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="2"/>
@@ -5104,10 +4580,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="24"/>
-      <c r="N186" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N186" s="8"/>
     </row>
     <row r="187" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="2"/>
@@ -5123,10 +4596,7 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="24"/>
-      <c r="N187" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N187" s="8"/>
     </row>
     <row r="188" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="2"/>
@@ -5142,10 +4612,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="24"/>
-      <c r="N188" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N188" s="8"/>
     </row>
     <row r="189" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="2"/>
@@ -5161,10 +4628,7 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="24"/>
-      <c r="N189" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N189" s="8"/>
     </row>
     <row r="190" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="2"/>
@@ -5180,10 +4644,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="24"/>
-      <c r="N190" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N190" s="8"/>
     </row>
     <row r="191" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="2"/>
@@ -5199,10 +4660,7 @@
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="24"/>
-      <c r="N191" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N191" s="8"/>
     </row>
     <row r="192" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="2"/>
@@ -5218,10 +4676,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="24"/>
-      <c r="N192" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N192" s="8"/>
     </row>
     <row r="193" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="2"/>
@@ -5237,10 +4692,7 @@
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="24"/>
-      <c r="N193" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N193" s="8"/>
     </row>
     <row r="194" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="2"/>
@@ -5256,10 +4708,7 @@
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
       <c r="M194" s="24"/>
-      <c r="N194" s="8" t="str">
-        <f t="shared" ref="N194:N257" si="3">+IF(ISBLANK($A194),"","Main Benefit Group")</f>
-        <v/>
-      </c>
+      <c r="N194" s="8"/>
     </row>
     <row r="195" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="2"/>
@@ -5275,10 +4724,7 @@
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
       <c r="M195" s="24"/>
-      <c r="N195" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N195" s="8"/>
     </row>
     <row r="196" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="2"/>
@@ -5294,10 +4740,7 @@
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
       <c r="M196" s="24"/>
-      <c r="N196" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N196" s="8"/>
     </row>
     <row r="197" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="2"/>
@@ -5313,10 +4756,7 @@
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
       <c r="M197" s="24"/>
-      <c r="N197" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N197" s="8"/>
     </row>
     <row r="198" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="2"/>
@@ -5332,10 +4772,7 @@
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
       <c r="M198" s="24"/>
-      <c r="N198" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N198" s="8"/>
     </row>
     <row r="199" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="2"/>
@@ -5351,10 +4788,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
       <c r="M199" s="24"/>
-      <c r="N199" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N199" s="8"/>
     </row>
     <row r="200" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="2"/>
@@ -5370,10 +4804,7 @@
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
       <c r="M200" s="24"/>
-      <c r="N200" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N200" s="8"/>
     </row>
     <row r="201" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="2"/>
@@ -5389,903 +4820,759 @@
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
       <c r="M201" s="24"/>
-      <c r="N201" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="24"/>
-      <c r="H202" s="7"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="24"/>
-      <c r="K202" s="6"/>
-      <c r="L202" s="6"/>
-      <c r="M202" s="24"/>
-      <c r="N202" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="24"/>
-      <c r="H203" s="7"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="24"/>
-      <c r="K203" s="6"/>
-      <c r="L203" s="6"/>
-      <c r="M203" s="24"/>
-      <c r="N203" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="24"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="24"/>
-      <c r="K204" s="6"/>
-      <c r="L204" s="6"/>
-      <c r="M204" s="24"/>
-      <c r="N204" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="24"/>
-      <c r="H205" s="7"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="24"/>
-      <c r="K205" s="6"/>
-      <c r="L205" s="6"/>
-      <c r="M205" s="24"/>
-      <c r="N205" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A206" s="2"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="24"/>
-      <c r="H206" s="7"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="24"/>
-      <c r="K206" s="6"/>
-      <c r="L206" s="6"/>
-      <c r="M206" s="24"/>
-      <c r="N206" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A207" s="2"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="24"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="24"/>
-      <c r="K207" s="6"/>
-      <c r="L207" s="6"/>
-      <c r="M207" s="24"/>
-      <c r="N207" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A208" s="2"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="24"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="24"/>
-      <c r="K208" s="6"/>
-      <c r="L208" s="6"/>
-      <c r="M208" s="24"/>
-      <c r="N208" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A209" s="2"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="24"/>
-      <c r="H209" s="7"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="24"/>
-      <c r="K209" s="6"/>
-      <c r="L209" s="6"/>
-      <c r="M209" s="24"/>
-      <c r="N209" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A210" s="2"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="24"/>
-      <c r="H210" s="7"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="24"/>
-      <c r="K210" s="6"/>
-      <c r="L210" s="6"/>
-      <c r="M210" s="24"/>
-      <c r="N210" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A211" s="2"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="24"/>
-      <c r="H211" s="7"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="24"/>
-      <c r="K211" s="6"/>
-      <c r="L211" s="6"/>
-      <c r="M211" s="24"/>
-      <c r="N211" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="7"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="24"/>
-      <c r="K212" s="6"/>
-      <c r="L212" s="6"/>
-      <c r="M212" s="24"/>
-      <c r="N212" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A213" s="2"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="24"/>
-      <c r="K213" s="6"/>
-      <c r="L213" s="6"/>
-      <c r="M213" s="24"/>
-      <c r="N213" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A214" s="2"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="7"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="24"/>
-      <c r="K214" s="6"/>
-      <c r="L214" s="6"/>
-      <c r="M214" s="24"/>
-      <c r="N214" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A215" s="2"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="24"/>
-      <c r="K215" s="6"/>
-      <c r="L215" s="6"/>
-      <c r="M215" s="24"/>
-      <c r="N215" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A216" s="2"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="7"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="24"/>
-      <c r="K216" s="6"/>
-      <c r="L216" s="6"/>
-      <c r="M216" s="24"/>
-      <c r="N216" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A217" s="2"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="24"/>
-      <c r="H217" s="7"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="24"/>
-      <c r="K217" s="6"/>
-      <c r="L217" s="6"/>
-      <c r="M217" s="24"/>
-      <c r="N217" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A218" s="2"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="24"/>
-      <c r="K218" s="6"/>
-      <c r="L218" s="6"/>
-      <c r="M218" s="24"/>
-      <c r="N218" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A219" s="2"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="24"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="24"/>
-      <c r="K219" s="6"/>
-      <c r="L219" s="6"/>
-      <c r="M219" s="24"/>
-      <c r="N219" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A220" s="2"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="24"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="24"/>
-      <c r="K220" s="6"/>
-      <c r="L220" s="6"/>
-      <c r="M220" s="24"/>
-      <c r="N220" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A221" s="2"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="7"/>
-      <c r="I221" s="5"/>
-      <c r="J221" s="24"/>
-      <c r="K221" s="6"/>
-      <c r="L221" s="6"/>
-      <c r="M221" s="24"/>
-      <c r="N221" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="24"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="24"/>
-      <c r="K222" s="6"/>
-      <c r="L222" s="6"/>
-      <c r="M222" s="24"/>
-      <c r="N222" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="24"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="5"/>
-      <c r="J223" s="24"/>
-      <c r="K223" s="6"/>
-      <c r="L223" s="6"/>
-      <c r="M223" s="24"/>
-      <c r="N223" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A224" s="2"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="24"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="24"/>
-      <c r="K224" s="6"/>
-      <c r="L224" s="6"/>
-      <c r="M224" s="24"/>
-      <c r="N224" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A225" s="2"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="24"/>
-      <c r="H225" s="7"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="24"/>
-      <c r="K225" s="6"/>
-      <c r="L225" s="6"/>
-      <c r="M225" s="24"/>
-      <c r="N225" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A226" s="2"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="24"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="5"/>
-      <c r="J226" s="24"/>
-      <c r="K226" s="6"/>
-      <c r="L226" s="6"/>
-      <c r="M226" s="24"/>
-      <c r="N226" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A227" s="2"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="24"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="24"/>
-      <c r="K227" s="6"/>
-      <c r="L227" s="6"/>
-      <c r="M227" s="24"/>
-      <c r="N227" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A228" s="2"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="24"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="24"/>
-      <c r="K228" s="6"/>
-      <c r="L228" s="6"/>
-      <c r="M228" s="24"/>
-      <c r="N228" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A229" s="2"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="24"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="24"/>
-      <c r="K229" s="6"/>
-      <c r="L229" s="6"/>
-      <c r="M229" s="24"/>
-      <c r="N229" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A230" s="2"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="24"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="24"/>
-      <c r="K230" s="6"/>
-      <c r="L230" s="6"/>
-      <c r="M230" s="24"/>
-      <c r="N230" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A231" s="2"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="24"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="24"/>
-      <c r="K231" s="6"/>
-      <c r="L231" s="6"/>
-      <c r="M231" s="24"/>
-      <c r="N231" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A232" s="2"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-      <c r="G232" s="24"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="24"/>
-      <c r="K232" s="6"/>
-      <c r="L232" s="6"/>
-      <c r="M232" s="24"/>
-      <c r="N232" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A233" s="2"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
-      <c r="G233" s="24"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="24"/>
-      <c r="K233" s="6"/>
-      <c r="L233" s="6"/>
-      <c r="M233" s="24"/>
-      <c r="N233" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="4"/>
-      <c r="G234" s="24"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="24"/>
-      <c r="K234" s="6"/>
-      <c r="L234" s="6"/>
-      <c r="M234" s="24"/>
-      <c r="N234" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A235" s="2"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4"/>
-      <c r="G235" s="24"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="24"/>
-      <c r="K235" s="6"/>
-      <c r="L235" s="6"/>
-      <c r="M235" s="24"/>
-      <c r="N235" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4"/>
-      <c r="G236" s="24"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="24"/>
-      <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
-      <c r="M236" s="24"/>
-      <c r="N236" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-      <c r="G237" s="24"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="24"/>
-      <c r="K237" s="6"/>
-      <c r="L237" s="6"/>
-      <c r="M237" s="24"/>
-      <c r="N237" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="4"/>
-      <c r="G238" s="24"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="24"/>
-      <c r="K238" s="6"/>
-      <c r="L238" s="6"/>
-      <c r="M238" s="24"/>
-      <c r="N238" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
-      <c r="G239" s="24"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="24"/>
-      <c r="K239" s="6"/>
-      <c r="L239" s="6"/>
-      <c r="M239" s="24"/>
-      <c r="N239" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="24"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="24"/>
-      <c r="K240" s="6"/>
-      <c r="L240" s="6"/>
-      <c r="M240" s="24"/>
-      <c r="N240" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
-      <c r="G241" s="24"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="24"/>
-      <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
-      <c r="M241" s="24"/>
-      <c r="N241" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="4"/>
-      <c r="G242" s="24"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="24"/>
-      <c r="K242" s="6"/>
-      <c r="L242" s="6"/>
-      <c r="M242" s="24"/>
-      <c r="N242" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4"/>
-      <c r="G243" s="24"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="24"/>
-      <c r="K243" s="6"/>
-      <c r="L243" s="6"/>
-      <c r="M243" s="24"/>
-      <c r="N243" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="24"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="24"/>
-      <c r="K244" s="6"/>
-      <c r="L244" s="6"/>
-      <c r="M244" s="24"/>
-      <c r="N244" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="4"/>
-      <c r="G245" s="24"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="24"/>
-      <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-      <c r="M245" s="24"/>
-      <c r="N245" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4"/>
-      <c r="G246" s="24"/>
-      <c r="H246" s="7"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="24"/>
-      <c r="K246" s="6"/>
-      <c r="L246" s="6"/>
-      <c r="M246" s="24"/>
-      <c r="N246" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="4"/>
-      <c r="G247" s="24"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="24"/>
-      <c r="K247" s="6"/>
-      <c r="L247" s="6"/>
-      <c r="M247" s="24"/>
-      <c r="N247" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="4"/>
-      <c r="G248" s="24"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="24"/>
-      <c r="K248" s="6"/>
-      <c r="L248" s="6"/>
-      <c r="M248" s="24"/>
-      <c r="N248" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="N201" s="8"/>
+    </row>
+    <row r="202" spans="1:14" ht="15" customHeight="1">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="25"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="25"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="25"/>
+      <c r="N202" s="8"/>
+    </row>
+    <row r="203" spans="1:14" ht="15" customHeight="1">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="25"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="25"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="25"/>
+      <c r="N203" s="8"/>
+    </row>
+    <row r="204" spans="1:14" ht="15" customHeight="1">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="25"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="25"/>
+      <c r="N204" s="8"/>
+    </row>
+    <row r="205" spans="1:14" ht="15" customHeight="1">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="25"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="25"/>
+      <c r="N205" s="8"/>
+    </row>
+    <row r="206" spans="1:14" ht="15" customHeight="1">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="25"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="25"/>
+      <c r="N206" s="8"/>
+    </row>
+    <row r="207" spans="1:14" ht="15" customHeight="1">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="25"/>
+      <c r="N207" s="8"/>
+    </row>
+    <row r="208" spans="1:14" ht="15" customHeight="1">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="25"/>
+      <c r="N208" s="8"/>
+    </row>
+    <row r="209" spans="1:14" ht="15" customHeight="1">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="25"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="25"/>
+      <c r="N209" s="8"/>
+    </row>
+    <row r="210" spans="1:14" ht="15" customHeight="1">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="25"/>
+      <c r="N210" s="8"/>
+    </row>
+    <row r="211" spans="1:14" ht="15" customHeight="1">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="25"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="8"/>
+    </row>
+    <row r="212" spans="1:14" ht="15" customHeight="1">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="25"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="25"/>
+      <c r="N212" s="8"/>
+    </row>
+    <row r="213" spans="1:14" ht="15" customHeight="1">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="25"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="25"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="25"/>
+      <c r="N213" s="8"/>
+    </row>
+    <row r="214" spans="1:14" ht="15" customHeight="1">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="25"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="25"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="25"/>
+      <c r="N214" s="8"/>
+    </row>
+    <row r="215" spans="1:14" ht="15" customHeight="1">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="25"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="25"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="25"/>
+      <c r="N215" s="8"/>
+    </row>
+    <row r="216" spans="1:14" ht="15" customHeight="1">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="25"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="25"/>
+      <c r="N216" s="8"/>
+    </row>
+    <row r="217" spans="1:14" ht="15" customHeight="1">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="25"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="25"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="25"/>
+      <c r="N217" s="8"/>
+    </row>
+    <row r="218" spans="1:14" ht="15" customHeight="1">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="25"/>
+      <c r="N218" s="8"/>
+    </row>
+    <row r="219" spans="1:14" ht="15" customHeight="1">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="25"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="25"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="25"/>
+      <c r="N219" s="8"/>
+    </row>
+    <row r="220" spans="1:14" ht="15" customHeight="1">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="25"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="25"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="25"/>
+      <c r="N220" s="8"/>
+    </row>
+    <row r="221" spans="1:14" ht="15" customHeight="1">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="25"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="25"/>
+      <c r="N221" s="8"/>
+    </row>
+    <row r="222" spans="1:14" ht="15" customHeight="1">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="25"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="25"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="25"/>
+      <c r="N222" s="8"/>
+    </row>
+    <row r="223" spans="1:14" ht="15" customHeight="1">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="25"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="25"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="25"/>
+      <c r="N223" s="8"/>
+    </row>
+    <row r="224" spans="1:14" ht="15" customHeight="1">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="25"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="25"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="25"/>
+      <c r="N224" s="8"/>
+    </row>
+    <row r="225" spans="1:14" ht="15" customHeight="1">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="25"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="25"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="25"/>
+      <c r="N225" s="8"/>
+    </row>
+    <row r="226" spans="1:14" ht="15" customHeight="1">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="25"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="25"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="25"/>
+      <c r="N226" s="8"/>
+    </row>
+    <row r="227" spans="1:14" ht="15" customHeight="1">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="25"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="25"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="25"/>
+      <c r="N227" s="8"/>
+    </row>
+    <row r="228" spans="1:14" ht="15" customHeight="1">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="25"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="25"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="25"/>
+      <c r="N228" s="8"/>
+    </row>
+    <row r="229" spans="1:14" ht="15" customHeight="1">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="25"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="25"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="25"/>
+      <c r="N229" s="8"/>
+    </row>
+    <row r="230" spans="1:14" ht="15" customHeight="1">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="25"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="25"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="25"/>
+      <c r="N230" s="8"/>
+    </row>
+    <row r="231" spans="1:14" ht="15" customHeight="1">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="25"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="25"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="25"/>
+      <c r="N231" s="8"/>
+    </row>
+    <row r="232" spans="1:14" ht="15" customHeight="1">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="25"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="25"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+      <c r="M232" s="25"/>
+      <c r="N232" s="8"/>
+    </row>
+    <row r="233" spans="1:14" ht="15" customHeight="1">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="25"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="25"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="25"/>
+      <c r="N233" s="8"/>
+    </row>
+    <row r="234" spans="1:14" ht="15" customHeight="1">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="25"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="25"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="25"/>
+      <c r="N234" s="8"/>
+    </row>
+    <row r="235" spans="1:14" ht="15" customHeight="1">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="25"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="25"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="25"/>
+      <c r="N235" s="8"/>
+    </row>
+    <row r="236" spans="1:14" ht="15" customHeight="1">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="25"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="25"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="25"/>
+      <c r="N236" s="8"/>
+    </row>
+    <row r="237" spans="1:14" ht="15" customHeight="1">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="25"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="25"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="25"/>
+      <c r="N237" s="8"/>
+    </row>
+    <row r="238" spans="1:14" ht="15" customHeight="1">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="25"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="25"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="25"/>
+      <c r="N238" s="8"/>
+    </row>
+    <row r="239" spans="1:14" ht="15" customHeight="1">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="25"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="25"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="25"/>
+      <c r="N239" s="8"/>
+    </row>
+    <row r="240" spans="1:14" ht="15" customHeight="1">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="25"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="25"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="25"/>
+      <c r="N240" s="8"/>
+    </row>
+    <row r="241" spans="1:14" ht="15" customHeight="1">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="25"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="25"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="25"/>
+      <c r="N241" s="8"/>
+    </row>
+    <row r="242" spans="1:14" ht="15" customHeight="1">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="25"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="25"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="25"/>
+      <c r="N242" s="8"/>
+    </row>
+    <row r="243" spans="1:14" ht="15" customHeight="1">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="25"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="25"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="25"/>
+      <c r="N243" s="8"/>
+    </row>
+    <row r="244" spans="1:14" ht="15" customHeight="1">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="25"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="25"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="25"/>
+      <c r="N244" s="8"/>
+    </row>
+    <row r="245" spans="1:14" ht="15" customHeight="1">
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="25"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="25"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="25"/>
+      <c r="N245" s="8"/>
+    </row>
+    <row r="246" spans="1:14" ht="15" customHeight="1">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="25"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="25"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="25"/>
+      <c r="N246" s="8"/>
+    </row>
+    <row r="247" spans="1:14" ht="15" customHeight="1">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="25"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="25"/>
+      <c r="K247" s="11"/>
+      <c r="L247" s="11"/>
+      <c r="M247" s="25"/>
+      <c r="N247" s="8"/>
+    </row>
+    <row r="248" spans="1:14" ht="15" customHeight="1">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="25"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="25"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="25"/>
+      <c r="N248" s="8"/>
     </row>
     <row r="249" spans="1:14" ht="15" customHeight="1">
       <c r="A249" s="10"/>
@@ -6294,17 +5581,14 @@
       <c r="D249" s="10"/>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
-      <c r="G249" s="26"/>
+      <c r="G249" s="25"/>
       <c r="H249" s="12"/>
       <c r="I249" s="11"/>
-      <c r="J249" s="26"/>
+      <c r="J249" s="25"/>
       <c r="K249" s="11"/>
       <c r="L249" s="11"/>
-      <c r="M249" s="26"/>
-      <c r="N249" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M249" s="25"/>
+      <c r="N249" s="8"/>
     </row>
     <row r="250" spans="1:14" ht="15" customHeight="1">
       <c r="A250" s="10"/>
@@ -6313,17 +5597,14 @@
       <c r="D250" s="10"/>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
-      <c r="G250" s="26"/>
+      <c r="G250" s="25"/>
       <c r="H250" s="12"/>
       <c r="I250" s="11"/>
-      <c r="J250" s="26"/>
+      <c r="J250" s="25"/>
       <c r="K250" s="11"/>
       <c r="L250" s="11"/>
-      <c r="M250" s="26"/>
-      <c r="N250" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M250" s="25"/>
+      <c r="N250" s="8"/>
     </row>
     <row r="251" spans="1:14" ht="15" customHeight="1">
       <c r="A251" s="10"/>
@@ -6332,17 +5613,14 @@
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
-      <c r="G251" s="26"/>
+      <c r="G251" s="25"/>
       <c r="H251" s="12"/>
       <c r="I251" s="11"/>
-      <c r="J251" s="26"/>
+      <c r="J251" s="25"/>
       <c r="K251" s="11"/>
       <c r="L251" s="11"/>
-      <c r="M251" s="26"/>
-      <c r="N251" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M251" s="25"/>
+      <c r="N251" s="8"/>
     </row>
     <row r="252" spans="1:14" ht="15" customHeight="1">
       <c r="A252" s="10"/>
@@ -6351,17 +5629,14 @@
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
-      <c r="G252" s="26"/>
+      <c r="G252" s="25"/>
       <c r="H252" s="12"/>
       <c r="I252" s="11"/>
-      <c r="J252" s="26"/>
+      <c r="J252" s="25"/>
       <c r="K252" s="11"/>
       <c r="L252" s="11"/>
-      <c r="M252" s="26"/>
-      <c r="N252" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M252" s="25"/>
+      <c r="N252" s="8"/>
     </row>
     <row r="253" spans="1:14" ht="15" customHeight="1">
       <c r="A253" s="10"/>
@@ -6370,17 +5645,14 @@
       <c r="D253" s="10"/>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
-      <c r="G253" s="26"/>
+      <c r="G253" s="25"/>
       <c r="H253" s="12"/>
       <c r="I253" s="11"/>
-      <c r="J253" s="26"/>
+      <c r="J253" s="25"/>
       <c r="K253" s="11"/>
       <c r="L253" s="11"/>
-      <c r="M253" s="26"/>
-      <c r="N253" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M253" s="25"/>
+      <c r="N253" s="8"/>
     </row>
     <row r="254" spans="1:14" ht="15" customHeight="1">
       <c r="A254" s="10"/>
@@ -6389,17 +5661,14 @@
       <c r="D254" s="10"/>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
-      <c r="G254" s="26"/>
+      <c r="G254" s="25"/>
       <c r="H254" s="12"/>
       <c r="I254" s="11"/>
-      <c r="J254" s="26"/>
+      <c r="J254" s="25"/>
       <c r="K254" s="11"/>
       <c r="L254" s="11"/>
-      <c r="M254" s="26"/>
-      <c r="N254" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M254" s="25"/>
+      <c r="N254" s="8"/>
     </row>
     <row r="255" spans="1:14" ht="15" customHeight="1">
       <c r="A255" s="10"/>
@@ -6408,17 +5677,14 @@
       <c r="D255" s="10"/>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
-      <c r="G255" s="26"/>
+      <c r="G255" s="25"/>
       <c r="H255" s="12"/>
       <c r="I255" s="11"/>
-      <c r="J255" s="26"/>
+      <c r="J255" s="25"/>
       <c r="K255" s="11"/>
       <c r="L255" s="11"/>
-      <c r="M255" s="26"/>
-      <c r="N255" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M255" s="25"/>
+      <c r="N255" s="8"/>
     </row>
     <row r="256" spans="1:14" ht="15" customHeight="1">
       <c r="A256" s="10"/>
@@ -6427,17 +5693,14 @@
       <c r="D256" s="10"/>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
-      <c r="G256" s="26"/>
+      <c r="G256" s="25"/>
       <c r="H256" s="12"/>
       <c r="I256" s="11"/>
-      <c r="J256" s="26"/>
+      <c r="J256" s="25"/>
       <c r="K256" s="11"/>
       <c r="L256" s="11"/>
-      <c r="M256" s="26"/>
-      <c r="N256" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M256" s="25"/>
+      <c r="N256" s="8"/>
     </row>
     <row r="257" spans="1:14" ht="15" customHeight="1">
       <c r="A257" s="10"/>
@@ -6446,17 +5709,14 @@
       <c r="D257" s="10"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
-      <c r="G257" s="26"/>
+      <c r="G257" s="25"/>
       <c r="H257" s="12"/>
       <c r="I257" s="11"/>
-      <c r="J257" s="26"/>
+      <c r="J257" s="25"/>
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
-      <c r="M257" s="26"/>
-      <c r="N257" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="M257" s="25"/>
+      <c r="N257" s="8"/>
     </row>
     <row r="258" spans="1:14" ht="15" customHeight="1">
       <c r="A258" s="10"/>
@@ -6465,17 +5725,14 @@
       <c r="D258" s="10"/>
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
-      <c r="G258" s="26"/>
+      <c r="G258" s="25"/>
       <c r="H258" s="12"/>
       <c r="I258" s="11"/>
-      <c r="J258" s="26"/>
+      <c r="J258" s="25"/>
       <c r="K258" s="11"/>
       <c r="L258" s="11"/>
-      <c r="M258" s="26"/>
-      <c r="N258" s="8" t="str">
-        <f t="shared" ref="N258:N310" si="4">+IF(ISBLANK($A258),"","Main Benefit Group")</f>
-        <v/>
-      </c>
+      <c r="M258" s="25"/>
+      <c r="N258" s="8"/>
     </row>
     <row r="259" spans="1:14" ht="15" customHeight="1">
       <c r="A259" s="10"/>
@@ -6484,17 +5741,14 @@
       <c r="D259" s="10"/>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
-      <c r="G259" s="26"/>
+      <c r="G259" s="25"/>
       <c r="H259" s="12"/>
       <c r="I259" s="11"/>
-      <c r="J259" s="26"/>
+      <c r="J259" s="25"/>
       <c r="K259" s="11"/>
       <c r="L259" s="11"/>
-      <c r="M259" s="26"/>
-      <c r="N259" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="M259" s="25"/>
+      <c r="N259" s="8"/>
     </row>
     <row r="260" spans="1:14" ht="15" customHeight="1">
       <c r="A260" s="10"/>
@@ -6503,17 +5757,14 @@
       <c r="D260" s="10"/>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
-      <c r="G260" s="26"/>
+      <c r="G260" s="25"/>
       <c r="H260" s="12"/>
       <c r="I260" s="11"/>
-      <c r="J260" s="26"/>
+      <c r="J260" s="25"/>
       <c r="K260" s="11"/>
       <c r="L260" s="11"/>
-      <c r="M260" s="26"/>
-      <c r="N260" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="M260" s="25"/>
+      <c r="N260" s="8"/>
     </row>
     <row r="261" spans="1:14" ht="15" customHeight="1">
       <c r="A261" s="10"/>
@@ -6522,955 +5773,380 @@
       <c r="D261" s="10"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="26"/>
+      <c r="G261" s="25"/>
       <c r="H261" s="12"/>
       <c r="I261" s="11"/>
-      <c r="J261" s="26"/>
+      <c r="J261" s="25"/>
       <c r="K261" s="11"/>
       <c r="L261" s="11"/>
-      <c r="M261" s="26"/>
-      <c r="N261" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="M261" s="25"/>
+      <c r="N261" s="8"/>
     </row>
     <row r="262" spans="1:14" ht="15" customHeight="1">
-      <c r="A262" s="10"/>
-      <c r="B262" s="10"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="26"/>
-      <c r="H262" s="12"/>
-      <c r="I262" s="11"/>
-      <c r="J262" s="26"/>
-      <c r="K262" s="11"/>
-      <c r="L262" s="11"/>
-      <c r="M262" s="26"/>
-      <c r="N262" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N262" s="8"/>
     </row>
     <row r="263" spans="1:14" ht="15" customHeight="1">
-      <c r="A263" s="10"/>
-      <c r="B263" s="10"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="26"/>
-      <c r="H263" s="12"/>
-      <c r="I263" s="11"/>
-      <c r="J263" s="26"/>
-      <c r="K263" s="11"/>
-      <c r="L263" s="11"/>
-      <c r="M263" s="26"/>
-      <c r="N263" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N263" s="8"/>
     </row>
     <row r="264" spans="1:14" ht="15" customHeight="1">
-      <c r="A264" s="10"/>
-      <c r="B264" s="10"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="26"/>
-      <c r="H264" s="12"/>
-      <c r="I264" s="11"/>
-      <c r="J264" s="26"/>
-      <c r="K264" s="11"/>
-      <c r="L264" s="11"/>
-      <c r="M264" s="26"/>
-      <c r="N264" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N264" s="8"/>
     </row>
     <row r="265" spans="1:14" ht="15" customHeight="1">
-      <c r="A265" s="10"/>
-      <c r="B265" s="10"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
-      <c r="G265" s="26"/>
-      <c r="H265" s="12"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="26"/>
-      <c r="K265" s="11"/>
-      <c r="L265" s="11"/>
-      <c r="M265" s="26"/>
-      <c r="N265" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N265" s="8"/>
     </row>
     <row r="266" spans="1:14" ht="15" customHeight="1">
-      <c r="A266" s="10"/>
-      <c r="B266" s="10"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="26"/>
-      <c r="H266" s="12"/>
-      <c r="I266" s="11"/>
-      <c r="J266" s="26"/>
-      <c r="K266" s="11"/>
-      <c r="L266" s="11"/>
-      <c r="M266" s="26"/>
-      <c r="N266" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N266" s="8"/>
     </row>
     <row r="267" spans="1:14" ht="15" customHeight="1">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="26"/>
-      <c r="H267" s="12"/>
-      <c r="I267" s="11"/>
-      <c r="J267" s="26"/>
-      <c r="K267" s="11"/>
-      <c r="L267" s="11"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N267" s="8"/>
     </row>
     <row r="268" spans="1:14" ht="15" customHeight="1">
-      <c r="A268" s="10"/>
-      <c r="B268" s="10"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="26"/>
-      <c r="H268" s="12"/>
-      <c r="I268" s="11"/>
-      <c r="J268" s="26"/>
-      <c r="K268" s="11"/>
-      <c r="L268" s="11"/>
-      <c r="M268" s="26"/>
-      <c r="N268" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N268" s="8"/>
     </row>
     <row r="269" spans="1:14" ht="15" customHeight="1">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="26"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="11"/>
-      <c r="J269" s="26"/>
-      <c r="K269" s="11"/>
-      <c r="L269" s="11"/>
-      <c r="M269" s="26"/>
-      <c r="N269" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N269" s="8"/>
     </row>
     <row r="270" spans="1:14" ht="15" customHeight="1">
-      <c r="A270" s="10"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
-      <c r="G270" s="26"/>
-      <c r="H270" s="12"/>
-      <c r="I270" s="11"/>
-      <c r="J270" s="26"/>
-      <c r="K270" s="11"/>
-      <c r="L270" s="11"/>
-      <c r="M270" s="26"/>
-      <c r="N270" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N270" s="8"/>
     </row>
     <row r="271" spans="1:14" ht="15" customHeight="1">
-      <c r="A271" s="10"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="26"/>
-      <c r="H271" s="12"/>
-      <c r="I271" s="11"/>
-      <c r="J271" s="26"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="26"/>
-      <c r="N271" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N271" s="8"/>
     </row>
     <row r="272" spans="1:14" ht="15" customHeight="1">
-      <c r="A272" s="10"/>
-      <c r="B272" s="10"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="26"/>
-      <c r="H272" s="12"/>
-      <c r="I272" s="11"/>
-      <c r="J272" s="26"/>
-      <c r="K272" s="11"/>
-      <c r="L272" s="11"/>
-      <c r="M272" s="26"/>
-      <c r="N272" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="1:14" ht="15" customHeight="1">
-      <c r="A273" s="10"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="26"/>
-      <c r="H273" s="12"/>
-      <c r="I273" s="11"/>
-      <c r="J273" s="26"/>
-      <c r="K273" s="11"/>
-      <c r="L273" s="11"/>
-      <c r="M273" s="26"/>
-      <c r="N273" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:14" ht="15" customHeight="1">
-      <c r="A274" s="10"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
-      <c r="G274" s="26"/>
-      <c r="H274" s="12"/>
-      <c r="I274" s="11"/>
-      <c r="J274" s="26"/>
-      <c r="K274" s="11"/>
-      <c r="L274" s="11"/>
-      <c r="M274" s="26"/>
-      <c r="N274" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:14" ht="15" customHeight="1">
-      <c r="A275" s="10"/>
-      <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="26"/>
-      <c r="H275" s="12"/>
-      <c r="I275" s="11"/>
-      <c r="J275" s="26"/>
-      <c r="K275" s="11"/>
-      <c r="L275" s="11"/>
-      <c r="M275" s="26"/>
-      <c r="N275" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:14" ht="15" customHeight="1">
-      <c r="A276" s="10"/>
-      <c r="B276" s="10"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
-      <c r="G276" s="26"/>
-      <c r="H276" s="12"/>
-      <c r="I276" s="11"/>
-      <c r="J276" s="26"/>
-      <c r="K276" s="11"/>
-      <c r="L276" s="11"/>
-      <c r="M276" s="26"/>
-      <c r="N276" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="1:14" ht="15" customHeight="1">
-      <c r="A277" s="10"/>
-      <c r="B277" s="10"/>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="26"/>
-      <c r="H277" s="12"/>
-      <c r="I277" s="11"/>
-      <c r="J277" s="26"/>
-      <c r="K277" s="11"/>
-      <c r="L277" s="11"/>
-      <c r="M277" s="26"/>
-      <c r="N277" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:14" ht="15" customHeight="1">
-      <c r="A278" s="10"/>
-      <c r="B278" s="10"/>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="10"/>
-      <c r="F278" s="10"/>
-      <c r="G278" s="26"/>
-      <c r="H278" s="12"/>
-      <c r="I278" s="11"/>
-      <c r="J278" s="26"/>
-      <c r="K278" s="11"/>
-      <c r="L278" s="11"/>
-      <c r="M278" s="26"/>
-      <c r="N278" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:14" ht="15" customHeight="1">
-      <c r="A279" s="10"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
-      <c r="G279" s="26"/>
-      <c r="H279" s="12"/>
-      <c r="I279" s="11"/>
-      <c r="J279" s="26"/>
-      <c r="K279" s="11"/>
-      <c r="L279" s="11"/>
-      <c r="M279" s="26"/>
-      <c r="N279" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:14" ht="15" customHeight="1">
-      <c r="A280" s="10"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
-      <c r="G280" s="26"/>
-      <c r="H280" s="12"/>
-      <c r="I280" s="11"/>
-      <c r="J280" s="26"/>
-      <c r="K280" s="11"/>
-      <c r="L280" s="11"/>
-      <c r="M280" s="26"/>
-      <c r="N280" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:14" ht="15" customHeight="1">
-      <c r="A281" s="10"/>
-      <c r="B281" s="10"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
-      <c r="G281" s="26"/>
-      <c r="H281" s="12"/>
-      <c r="I281" s="11"/>
-      <c r="J281" s="26"/>
-      <c r="K281" s="11"/>
-      <c r="L281" s="11"/>
-      <c r="M281" s="26"/>
-      <c r="N281" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:14" ht="15" customHeight="1">
-      <c r="A282" s="10"/>
-      <c r="B282" s="10"/>
-      <c r="C282" s="10"/>
-      <c r="D282" s="10"/>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
-      <c r="G282" s="26"/>
-      <c r="H282" s="12"/>
-      <c r="I282" s="11"/>
-      <c r="J282" s="26"/>
-      <c r="K282" s="11"/>
-      <c r="L282" s="11"/>
-      <c r="M282" s="26"/>
-      <c r="N282" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:14" ht="15" customHeight="1">
-      <c r="A283" s="10"/>
-      <c r="B283" s="10"/>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
-      <c r="G283" s="26"/>
-      <c r="H283" s="12"/>
-      <c r="I283" s="11"/>
-      <c r="J283" s="26"/>
-      <c r="K283" s="11"/>
-      <c r="L283" s="11"/>
-      <c r="M283" s="26"/>
-      <c r="N283" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:14" ht="15" customHeight="1">
-      <c r="A284" s="10"/>
-      <c r="B284" s="10"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="26"/>
-      <c r="H284" s="12"/>
-      <c r="I284" s="11"/>
-      <c r="J284" s="26"/>
-      <c r="K284" s="11"/>
-      <c r="L284" s="11"/>
-      <c r="M284" s="26"/>
-      <c r="N284" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:14" ht="15" customHeight="1">
-      <c r="A285" s="10"/>
-      <c r="B285" s="10"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="26"/>
-      <c r="H285" s="12"/>
-      <c r="I285" s="11"/>
-      <c r="J285" s="26"/>
-      <c r="K285" s="11"/>
-      <c r="L285" s="11"/>
-      <c r="M285" s="26"/>
-      <c r="N285" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:14" ht="15" customHeight="1">
-      <c r="A286" s="10"/>
-      <c r="B286" s="10"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="26"/>
-      <c r="H286" s="12"/>
-      <c r="I286" s="11"/>
-      <c r="J286" s="26"/>
-      <c r="K286" s="11"/>
-      <c r="L286" s="11"/>
-      <c r="M286" s="26"/>
-      <c r="N286" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:14" ht="15" customHeight="1">
-      <c r="A287" s="10"/>
-      <c r="B287" s="10"/>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10"/>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="26"/>
-      <c r="H287" s="12"/>
-      <c r="I287" s="11"/>
-      <c r="J287" s="26"/>
-      <c r="K287" s="11"/>
-      <c r="L287" s="11"/>
-      <c r="M287" s="26"/>
-      <c r="N287" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:14" ht="15" customHeight="1">
-      <c r="A288" s="10"/>
-      <c r="B288" s="10"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="26"/>
-      <c r="H288" s="12"/>
-      <c r="I288" s="11"/>
-      <c r="J288" s="26"/>
-      <c r="K288" s="11"/>
-      <c r="L288" s="11"/>
-      <c r="M288" s="26"/>
-      <c r="N288" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:14" ht="15" customHeight="1">
-      <c r="A289" s="10"/>
-      <c r="B289" s="10"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="26"/>
-      <c r="H289" s="12"/>
-      <c r="I289" s="11"/>
-      <c r="J289" s="26"/>
-      <c r="K289" s="11"/>
-      <c r="L289" s="11"/>
-      <c r="M289" s="26"/>
-      <c r="N289" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:14" ht="15" customHeight="1">
-      <c r="A290" s="10"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="26"/>
-      <c r="H290" s="12"/>
-      <c r="I290" s="11"/>
-      <c r="J290" s="26"/>
-      <c r="K290" s="11"/>
-      <c r="L290" s="11"/>
-      <c r="M290" s="26"/>
-      <c r="N290" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:14" ht="15" customHeight="1">
-      <c r="A291" s="10"/>
-      <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="26"/>
-      <c r="H291" s="12"/>
-      <c r="I291" s="11"/>
-      <c r="J291" s="26"/>
-      <c r="K291" s="11"/>
-      <c r="L291" s="11"/>
-      <c r="M291" s="26"/>
-      <c r="N291" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:14" ht="15" customHeight="1">
-      <c r="A292" s="10"/>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="26"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="11"/>
-      <c r="J292" s="26"/>
-      <c r="K292" s="11"/>
-      <c r="L292" s="11"/>
-      <c r="M292" s="26"/>
-      <c r="N292" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:14" ht="15" customHeight="1">
-      <c r="A293" s="10"/>
-      <c r="B293" s="10"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="26"/>
-      <c r="H293" s="12"/>
-      <c r="I293" s="11"/>
-      <c r="J293" s="26"/>
-      <c r="K293" s="11"/>
-      <c r="L293" s="11"/>
-      <c r="M293" s="26"/>
-      <c r="N293" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:14" ht="15" customHeight="1">
-      <c r="A294" s="10"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="26"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="11"/>
-      <c r="J294" s="26"/>
-      <c r="K294" s="11"/>
-      <c r="L294" s="11"/>
-      <c r="M294" s="26"/>
-      <c r="N294" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:14" ht="15" customHeight="1">
-      <c r="A295" s="10"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="26"/>
-      <c r="H295" s="12"/>
-      <c r="I295" s="11"/>
-      <c r="J295" s="26"/>
-      <c r="K295" s="11"/>
-      <c r="L295" s="11"/>
-      <c r="M295" s="26"/>
-      <c r="N295" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:14" ht="15" customHeight="1">
-      <c r="A296" s="10"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="26"/>
-      <c r="H296" s="12"/>
-      <c r="I296" s="11"/>
-      <c r="J296" s="26"/>
-      <c r="K296" s="11"/>
-      <c r="L296" s="11"/>
-      <c r="M296" s="26"/>
-      <c r="N296" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:14" ht="15" customHeight="1">
-      <c r="A297" s="10"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
-      <c r="G297" s="26"/>
-      <c r="H297" s="12"/>
-      <c r="I297" s="11"/>
-      <c r="J297" s="26"/>
-      <c r="K297" s="11"/>
-      <c r="L297" s="11"/>
-      <c r="M297" s="26"/>
-      <c r="N297" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:14" ht="15" customHeight="1">
-      <c r="A298" s="10"/>
-      <c r="B298" s="10"/>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="26"/>
-      <c r="H298" s="12"/>
-      <c r="I298" s="11"/>
-      <c r="J298" s="26"/>
-      <c r="K298" s="11"/>
-      <c r="L298" s="11"/>
-      <c r="M298" s="26"/>
-      <c r="N298" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:14" ht="15" customHeight="1">
-      <c r="A299" s="10"/>
-      <c r="B299" s="10"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="26"/>
-      <c r="H299" s="12"/>
-      <c r="I299" s="11"/>
-      <c r="J299" s="26"/>
-      <c r="K299" s="11"/>
-      <c r="L299" s="11"/>
-      <c r="M299" s="26"/>
-      <c r="N299" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:14" ht="15" customHeight="1">
-      <c r="A300" s="10"/>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
-      <c r="G300" s="26"/>
-      <c r="H300" s="12"/>
-      <c r="I300" s="11"/>
-      <c r="J300" s="26"/>
-      <c r="K300" s="11"/>
-      <c r="L300" s="11"/>
-      <c r="M300" s="26"/>
-      <c r="N300" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:14" ht="15" customHeight="1">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="26"/>
-      <c r="H301" s="12"/>
-      <c r="I301" s="11"/>
-      <c r="J301" s="26"/>
-      <c r="K301" s="11"/>
-      <c r="L301" s="11"/>
-      <c r="M301" s="26"/>
-      <c r="N301" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:14" ht="15" customHeight="1">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="26"/>
-      <c r="H302" s="12"/>
-      <c r="I302" s="11"/>
-      <c r="J302" s="26"/>
-      <c r="K302" s="11"/>
-      <c r="L302" s="11"/>
-      <c r="M302" s="26"/>
-      <c r="N302" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:14" ht="15" customHeight="1">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10"/>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="26"/>
-      <c r="H303" s="12"/>
-      <c r="I303" s="11"/>
-      <c r="J303" s="26"/>
-      <c r="K303" s="11"/>
-      <c r="L303" s="11"/>
-      <c r="M303" s="26"/>
-      <c r="N303" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:14" ht="15" customHeight="1">
-      <c r="A304" s="10"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="26"/>
-      <c r="H304" s="12"/>
-      <c r="I304" s="11"/>
-      <c r="J304" s="26"/>
-      <c r="K304" s="11"/>
-      <c r="L304" s="11"/>
-      <c r="M304" s="26"/>
-      <c r="N304" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:14" ht="15" customHeight="1">
-      <c r="A305" s="10"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
-      <c r="G305" s="26"/>
-      <c r="H305" s="12"/>
-      <c r="I305" s="11"/>
-      <c r="J305" s="26"/>
-      <c r="K305" s="11"/>
-      <c r="L305" s="11"/>
-      <c r="M305" s="26"/>
-      <c r="N305" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:14" ht="15" customHeight="1">
-      <c r="A306" s="10"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
-      <c r="G306" s="26"/>
-      <c r="H306" s="12"/>
-      <c r="I306" s="11"/>
-      <c r="J306" s="26"/>
-      <c r="K306" s="11"/>
-      <c r="L306" s="11"/>
-      <c r="M306" s="26"/>
-      <c r="N306" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:14" ht="15" customHeight="1">
-      <c r="A307" s="10"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
-      <c r="G307" s="26"/>
-      <c r="H307" s="12"/>
-      <c r="I307" s="11"/>
-      <c r="J307" s="26"/>
-      <c r="K307" s="11"/>
-      <c r="L307" s="11"/>
-      <c r="M307" s="26"/>
-      <c r="N307" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:14" ht="15" customHeight="1">
-      <c r="A308" s="10"/>
-      <c r="B308" s="10"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
-      <c r="G308" s="26"/>
-      <c r="H308" s="12"/>
-      <c r="I308" s="11"/>
-      <c r="J308" s="26"/>
-      <c r="K308" s="11"/>
-      <c r="L308" s="11"/>
-      <c r="M308" s="26"/>
-      <c r="N308" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:14" ht="15" customHeight="1">
-      <c r="N309" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="1:14" ht="15" customHeight="1">
-      <c r="N310" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="N272" s="8"/>
+    </row>
+    <row r="273" spans="14:14" ht="15" customHeight="1">
+      <c r="N273" s="8"/>
+    </row>
+    <row r="274" spans="14:14" ht="15" customHeight="1">
+      <c r="N274" s="8"/>
+    </row>
+    <row r="275" spans="14:14" ht="15" customHeight="1">
+      <c r="N275" s="8"/>
+    </row>
+    <row r="276" spans="14:14" ht="15" customHeight="1">
+      <c r="N276" s="8"/>
+    </row>
+    <row r="277" spans="14:14" ht="15" customHeight="1">
+      <c r="N277" s="8"/>
+    </row>
+    <row r="278" spans="14:14" ht="15" customHeight="1">
+      <c r="N278" s="8"/>
+    </row>
+    <row r="279" spans="14:14" ht="15" customHeight="1">
+      <c r="N279" s="8"/>
+    </row>
+    <row r="280" spans="14:14" ht="15" customHeight="1">
+      <c r="N280" s="8"/>
+    </row>
+    <row r="281" spans="14:14" ht="15" customHeight="1">
+      <c r="N281" s="8"/>
+    </row>
+    <row r="282" spans="14:14" ht="15" customHeight="1">
+      <c r="N282" s="8"/>
+    </row>
+    <row r="283" spans="14:14" ht="15" customHeight="1">
+      <c r="N283" s="8"/>
+    </row>
+    <row r="284" spans="14:14" ht="15" customHeight="1">
+      <c r="N284" s="8"/>
+    </row>
+    <row r="285" spans="14:14" ht="15" customHeight="1">
+      <c r="N285" s="8"/>
+    </row>
+    <row r="286" spans="14:14" ht="15" customHeight="1">
+      <c r="N286" s="8"/>
+    </row>
+    <row r="287" spans="14:14" ht="15" customHeight="1">
+      <c r="N287" s="8"/>
+    </row>
+    <row r="288" spans="14:14" ht="15" customHeight="1">
+      <c r="N288" s="8"/>
+    </row>
+    <row r="289" spans="14:14" ht="15" customHeight="1">
+      <c r="N289" s="8"/>
+    </row>
+    <row r="290" spans="14:14" ht="15" customHeight="1">
+      <c r="N290" s="8"/>
+    </row>
+    <row r="291" spans="14:14" ht="15" customHeight="1">
+      <c r="N291" s="8"/>
+    </row>
+    <row r="292" spans="14:14" ht="15" customHeight="1">
+      <c r="N292" s="8"/>
+    </row>
+    <row r="293" spans="14:14" ht="15" customHeight="1">
+      <c r="N293" s="8"/>
+    </row>
+    <row r="294" spans="14:14" ht="15" customHeight="1">
+      <c r="N294" s="8"/>
+    </row>
+    <row r="295" spans="14:14" ht="15" customHeight="1">
+      <c r="N295" s="8"/>
+    </row>
+    <row r="296" spans="14:14" ht="15" customHeight="1">
+      <c r="N296" s="8"/>
+    </row>
+    <row r="297" spans="14:14" ht="15" customHeight="1">
+      <c r="N297" s="8"/>
+    </row>
+    <row r="298" spans="14:14" ht="15" customHeight="1">
+      <c r="N298" s="8"/>
+    </row>
+    <row r="299" spans="14:14" ht="15" customHeight="1">
+      <c r="N299" s="8"/>
+    </row>
+    <row r="300" spans="14:14" ht="15" customHeight="1">
+      <c r="N300" s="8"/>
+    </row>
+    <row r="301" spans="14:14" ht="15" customHeight="1">
+      <c r="N301" s="8"/>
+    </row>
+    <row r="302" spans="14:14" ht="15" customHeight="1">
+      <c r="N302" s="8"/>
+    </row>
+    <row r="303" spans="14:14" ht="15" customHeight="1">
+      <c r="N303" s="8"/>
+    </row>
+    <row r="304" spans="14:14" ht="15" customHeight="1">
+      <c r="N304" s="8"/>
+    </row>
+    <row r="305" spans="14:14" ht="15" customHeight="1">
+      <c r="N305" s="8"/>
+    </row>
+    <row r="306" spans="14:14" ht="15" customHeight="1">
+      <c r="N306" s="8"/>
+    </row>
+    <row r="307" spans="14:14" ht="15" customHeight="1">
+      <c r="N307" s="8"/>
+    </row>
+    <row r="308" spans="14:14" ht="15" customHeight="1">
+      <c r="N308" s="8"/>
+    </row>
+    <row r="309" spans="14:14" ht="15" customHeight="1">
+      <c r="N309" s="8"/>
+    </row>
+    <row r="310" spans="14:14" ht="15" customHeight="1">
+      <c r="N310" s="8"/>
+    </row>
+    <row r="311" spans="14:14" ht="15" customHeight="1">
+      <c r="N311" s="8"/>
+    </row>
+    <row r="312" spans="14:14" ht="15" customHeight="1">
+      <c r="N312" s="8"/>
+    </row>
+    <row r="313" spans="14:14" ht="15" customHeight="1">
+      <c r="N313" s="8"/>
+    </row>
+    <row r="314" spans="14:14" ht="15" customHeight="1">
+      <c r="N314" s="8"/>
+    </row>
+    <row r="315" spans="14:14" ht="15" customHeight="1">
+      <c r="N315" s="8"/>
+    </row>
+    <row r="316" spans="14:14" ht="15" customHeight="1">
+      <c r="N316" s="8"/>
+    </row>
+    <row r="317" spans="14:14" ht="15" customHeight="1">
+      <c r="N317" s="8"/>
+    </row>
+    <row r="318" spans="14:14" ht="15" customHeight="1">
+      <c r="N318" s="8"/>
+    </row>
+    <row r="319" spans="14:14" ht="15" customHeight="1">
+      <c r="N319" s="8"/>
+    </row>
+    <row r="320" spans="14:14" ht="15" customHeight="1">
+      <c r="N320" s="8"/>
+    </row>
+    <row r="321" spans="14:14" ht="15" customHeight="1">
+      <c r="N321" s="8"/>
+    </row>
+    <row r="322" spans="14:14" ht="15" customHeight="1">
+      <c r="N322" s="8"/>
+    </row>
+    <row r="323" spans="14:14" ht="15" customHeight="1">
+      <c r="N323" s="8"/>
+    </row>
+    <row r="324" spans="14:14" ht="15" customHeight="1">
+      <c r="N324" s="8"/>
+    </row>
+    <row r="325" spans="14:14" ht="15" customHeight="1">
+      <c r="N325" s="8"/>
+    </row>
+    <row r="326" spans="14:14" ht="15" customHeight="1">
+      <c r="N326" s="8"/>
+    </row>
+    <row r="327" spans="14:14" ht="15" customHeight="1">
+      <c r="N327" s="8"/>
+    </row>
+    <row r="328" spans="14:14" ht="15" customHeight="1">
+      <c r="N328" s="8"/>
+    </row>
+    <row r="329" spans="14:14" ht="15" customHeight="1">
+      <c r="N329" s="8"/>
+    </row>
+    <row r="330" spans="14:14" ht="15" customHeight="1">
+      <c r="N330" s="8"/>
+    </row>
+    <row r="331" spans="14:14" ht="15" customHeight="1">
+      <c r="N331" s="8"/>
+    </row>
+    <row r="332" spans="14:14" ht="15" customHeight="1">
+      <c r="N332" s="8"/>
+    </row>
+    <row r="333" spans="14:14" ht="15" customHeight="1">
+      <c r="N333" s="8"/>
+    </row>
+    <row r="334" spans="14:14" ht="15" customHeight="1">
+      <c r="N334" s="8"/>
+    </row>
+    <row r="335" spans="14:14" ht="15" customHeight="1">
+      <c r="N335" s="8"/>
+    </row>
+    <row r="336" spans="14:14" ht="15" customHeight="1">
+      <c r="N336" s="8"/>
+    </row>
+    <row r="337" spans="14:14" ht="15" customHeight="1">
+      <c r="N337" s="8"/>
+    </row>
+    <row r="338" spans="14:14" ht="15" customHeight="1">
+      <c r="N338" s="8"/>
+    </row>
+    <row r="339" spans="14:14" ht="15" customHeight="1">
+      <c r="N339" s="8"/>
+    </row>
+    <row r="340" spans="14:14" ht="15" customHeight="1">
+      <c r="N340" s="8"/>
+    </row>
+    <row r="341" spans="14:14" ht="15" customHeight="1">
+      <c r="N341" s="8"/>
+    </row>
+    <row r="342" spans="14:14" ht="15" customHeight="1">
+      <c r="N342" s="8"/>
+    </row>
+    <row r="343" spans="14:14" ht="15" customHeight="1">
+      <c r="N343" s="8"/>
+    </row>
+    <row r="344" spans="14:14" ht="15" customHeight="1">
+      <c r="N344" s="8"/>
+    </row>
+    <row r="345" spans="14:14" ht="15" customHeight="1">
+      <c r="N345" s="8"/>
+    </row>
+    <row r="346" spans="14:14" ht="15" customHeight="1">
+      <c r="N346" s="8"/>
+    </row>
+    <row r="347" spans="14:14" ht="15" customHeight="1">
+      <c r="N347" s="8"/>
+    </row>
+    <row r="348" spans="14:14" ht="15" customHeight="1">
+      <c r="N348" s="8"/>
+    </row>
+    <row r="349" spans="14:14" ht="15" customHeight="1">
+      <c r="N349" s="8"/>
+    </row>
+    <row r="350" spans="14:14" ht="15" customHeight="1">
+      <c r="N350" s="8"/>
+    </row>
+    <row r="351" spans="14:14" ht="15" customHeight="1">
+      <c r="N351" s="8"/>
+    </row>
+    <row r="352" spans="14:14" ht="15" customHeight="1">
+      <c r="N352" s="8"/>
+    </row>
+    <row r="353" spans="14:14" ht="15" customHeight="1">
+      <c r="N353" s="8"/>
+    </row>
+    <row r="354" spans="14:14" ht="15" customHeight="1">
+      <c r="N354" s="8"/>
+    </row>
+    <row r="355" spans="14:14" ht="15" customHeight="1">
+      <c r="N355" s="8"/>
+    </row>
+    <row r="356" spans="14:14" ht="15" customHeight="1">
+      <c r="N356" s="8"/>
+    </row>
+    <row r="357" spans="14:14" ht="15" customHeight="1">
+      <c r="N357" s="8"/>
+    </row>
+    <row r="358" spans="14:14" ht="15" customHeight="1">
+      <c r="N358" s="8"/>
+    </row>
+    <row r="359" spans="14:14" ht="15" customHeight="1">
+      <c r="N359" s="8"/>
+    </row>
+    <row r="360" spans="14:14" ht="15" customHeight="1">
+      <c r="N360" s="8"/>
+    </row>
+    <row r="361" spans="14:14" ht="15" customHeight="1">
+      <c r="N361" s="8"/>
+    </row>
+    <row r="362" spans="14:14" ht="15" customHeight="1">
+      <c r="N362" s="8"/>
+    </row>
+    <row r="363" spans="14:14" ht="15" customHeight="1">
+      <c r="N363" s="8"/>
+    </row>
+    <row r="364" spans="14:14" ht="15" customHeight="1">
+      <c r="N364" s="8"/>
+    </row>
+    <row r="365" spans="14:14" ht="15" customHeight="1">
+      <c r="N365" s="8"/>
+    </row>
+    <row r="366" spans="14:14" ht="15" customHeight="1">
+      <c r="N366" s="8"/>
+    </row>
+    <row r="367" spans="14:14" ht="15" customHeight="1">
+      <c r="N367" s="8"/>
+    </row>
+    <row r="368" spans="14:14" ht="15" customHeight="1">
+      <c r="N368" s="8"/>
+    </row>
+    <row r="369" spans="14:14" ht="15" customHeight="1">
+      <c r="N369" s="8"/>
+    </row>
+    <row r="370" spans="14:14" ht="15" customHeight="1">
+      <c r="N370" s="8"/>
+    </row>
+    <row r="371" spans="14:14" ht="15" customHeight="1">
+      <c r="N371" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B305:B308 WVA4:WVA308 WLE4:WLE308 WBI4:WBI308 VRM4:VRM308 VHQ4:VHQ308 UXU4:UXU308 UNY4:UNY308 UEC4:UEC308 TUG4:TUG308 TKK4:TKK308 TAO4:TAO308 SQS4:SQS308 SGW4:SGW308 RXA4:RXA308 RNE4:RNE308 RDI4:RDI308 QTM4:QTM308 QJQ4:QJQ308 PZU4:PZU308 PPY4:PPY308 PGC4:PGC308 OWG4:OWG308 OMK4:OMK308 OCO4:OCO308 NSS4:NSS308 NIW4:NIW308 MZA4:MZA308 MPE4:MPE308 MFI4:MFI308 LVM4:LVM308 LLQ4:LLQ308 LBU4:LBU308 KRY4:KRY308 KIC4:KIC308 JYG4:JYG308 JOK4:JOK308 JEO4:JEO308 IUS4:IUS308 IKW4:IKW308 IBA4:IBA308 HRE4:HRE308 HHI4:HHI308 GXM4:GXM308 GNQ4:GNQ308 GDU4:GDU308 FTY4:FTY308 FKC4:FKC308 FAG4:FAG308 EQK4:EQK308 EGO4:EGO308 DWS4:DWS308 DMW4:DMW308 DDA4:DDA308 CTE4:CTE308 CJI4:CJI308 BZM4:BZM308 BPQ4:BPQ308 BFU4:BFU308 AVY4:AVY308 AMC4:AMC308 ACG4:ACG308 SK4:SK308 IO4:IO308">
-      <formula1>EERelationships</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B6:B1048576">
+      <formula1>"Employee,Spouse,Domestic Partner,Child"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE4:WVE308 WLI4:WLI308 WBM4:WBM308 VRQ4:VRQ308 VHU4:VHU308 UXY4:UXY308 UOC4:UOC308 UEG4:UEG308 TUK4:TUK308 TKO4:TKO308 TAS4:TAS308 SQW4:SQW308 SHA4:SHA308 RXE4:RXE308 RNI4:RNI308 RDM4:RDM308 QTQ4:QTQ308 QJU4:QJU308 PZY4:PZY308 PQC4:PQC308 PGG4:PGG308 OWK4:OWK308 OMO4:OMO308 OCS4:OCS308 NSW4:NSW308 NJA4:NJA308 MZE4:MZE308 MPI4:MPI308 MFM4:MFM308 LVQ4:LVQ308 LLU4:LLU308 LBY4:LBY308 KSC4:KSC308 KIG4:KIG308 JYK4:JYK308 JOO4:JOO308 JES4:JES308 IUW4:IUW308 ILA4:ILA308 IBE4:IBE308 HRI4:HRI308 HHM4:HHM308 GXQ4:GXQ308 GNU4:GNU308 GDY4:GDY308 FUC4:FUC308 FKG4:FKG308 FAK4:FAK308 EQO4:EQO308 EGS4:EGS308 DWW4:DWW308 DNA4:DNA308 DDE4:DDE308 CTI4:CTI308 CJM4:CJM308 BZQ4:BZQ308 BPU4:BPU308 BFY4:BFY308 AWC4:AWC308 AMG4:AMG308 ACK4:ACK308 SO4:SO308 IS4:IS308 F4:F308">
-      <formula1>Suffix</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4">
+      <formula1>"home,work"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVJ4:WVK308 WLN4:WLO308 WBR4:WBS308 VRV4:VRW308 VHZ4:VIA308 UYD4:UYE308 UOH4:UOI308 UEL4:UEM308 TUP4:TUQ308 TKT4:TKU308 TAX4:TAY308 SRB4:SRC308 SHF4:SHG308 RXJ4:RXK308 RNN4:RNO308 RDR4:RDS308 QTV4:QTW308 QJZ4:QKA308 QAD4:QAE308 PQH4:PQI308 PGL4:PGM308 OWP4:OWQ308 OMT4:OMU308 OCX4:OCY308 NTB4:NTC308 NJF4:NJG308 MZJ4:MZK308 MPN4:MPO308 MFR4:MFS308 LVV4:LVW308 LLZ4:LMA308 LCD4:LCE308 KSH4:KSI308 KIL4:KIM308 JYP4:JYQ308 JOT4:JOU308 JEX4:JEY308 IVB4:IVC308 ILF4:ILG308 IBJ4:IBK308 HRN4:HRO308 HHR4:HHS308 GXV4:GXW308 GNZ4:GOA308 GED4:GEE308 FUH4:FUI308 FKL4:FKM308 FAP4:FAQ308 EQT4:EQU308 EGX4:EGY308 DXB4:DXC308 DNF4:DNG308 DDJ4:DDK308 CTN4:CTO308 CJR4:CJS308 BZV4:BZW308 BPZ4:BQA308 BGD4:BGE308 AWH4:AWI308 AML4:AMM308 ACP4:ACQ308 ST4:SU308 IX4:IY308">
-      <formula1>Status</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B304">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"Employee,Spouse,Domestic Partner,Child,Disabled Child"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter date of birth between 1/1/1920 and today" sqref="I1:I1048576">
       <formula1>7306</formula1>
       <formula2>TODAY()</formula2>
     </dataValidation>
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVA4:WVA261 WLE4:WLE261 WBI4:WBI261 VRM4:VRM261 VHQ4:VHQ261 UXU4:UXU261 UNY4:UNY261 UEC4:UEC261 TUG4:TUG261 TKK4:TKK261 TAO4:TAO261 SQS4:SQS261 SGW4:SGW261 RXA4:RXA261 RNE4:RNE261 RDI4:RDI261 QTM4:QTM261 QJQ4:QJQ261 PZU4:PZU261 PPY4:PPY261 PGC4:PGC261 OWG4:OWG261 OMK4:OMK261 OCO4:OCO261 NSS4:NSS261 NIW4:NIW261 MZA4:MZA261 MPE4:MPE261 MFI4:MFI261 LVM4:LVM261 LLQ4:LLQ261 LBU4:LBU261 KRY4:KRY261 KIC4:KIC261 JYG4:JYG261 JOK4:JOK261 JEO4:JEO261 IUS4:IUS261 IKW4:IKW261 IBA4:IBA261 HRE4:HRE261 HHI4:HHI261 GXM4:GXM261 GNQ4:GNQ261 GDU4:GDU261 FTY4:FTY261 FKC4:FKC261 FAG4:FAG261 EQK4:EQK261 EGO4:EGO261 DWS4:DWS261 DMW4:DMW261 DDA4:DDA261 CTE4:CTE261 CJI4:CJI261 BZM4:BZM261 BPQ4:BPQ261 BFU4:BFU261 AVY4:AVY261 AMC4:AMC261 ACG4:ACG261 SK4:SK261 IO4:IO261">
+      <formula1>EERelationships</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F261 WLI4:WLI261 WBM4:WBM261 VRQ4:VRQ261 VHU4:VHU261 UXY4:UXY261 UOC4:UOC261 UEG4:UEG261 TUK4:TUK261 TKO4:TKO261 TAS4:TAS261 SQW4:SQW261 SHA4:SHA261 RXE4:RXE261 RNI4:RNI261 RDM4:RDM261 QTQ4:QTQ261 QJU4:QJU261 PZY4:PZY261 PQC4:PQC261 PGG4:PGG261 OWK4:OWK261 OMO4:OMO261 OCS4:OCS261 NSW4:NSW261 NJA4:NJA261 MZE4:MZE261 MPI4:MPI261 MFM4:MFM261 LVQ4:LVQ261 LLU4:LLU261 LBY4:LBY261 KSC4:KSC261 KIG4:KIG261 JYK4:JYK261 JOO4:JOO261 JES4:JES261 IUW4:IUW261 ILA4:ILA261 IBE4:IBE261 HRI4:HRI261 HHM4:HHM261 GXQ4:GXQ261 GNU4:GNU261 GDY4:GDY261 FUC4:FUC261 FKG4:FKG261 FAK4:FAK261 EQO4:EQO261 EGS4:EGS261 DWW4:DWW261 DNA4:DNA261 DDE4:DDE261 CTI4:CTI261 CJM4:CJM261 BZQ4:BZQ261 BPU4:BPU261 BFY4:BFY261 AWC4:AWC261 AMG4:AMG261 ACK4:ACK261 SO4:SO261 IS4:IS261 WVE4:WVE261">
+      <formula1>Suffix</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVJ4:WVK261 WLN4:WLO261 WBR4:WBS261 VRV4:VRW261 VHZ4:VIA261 UYD4:UYE261 UOH4:UOI261 UEL4:UEM261 TUP4:TUQ261 TKT4:TKU261 TAX4:TAY261 SRB4:SRC261 SHF4:SHG261 RXJ4:RXK261 RNN4:RNO261 RDR4:RDS261 QTV4:QTW261 QJZ4:QKA261 QAD4:QAE261 PQH4:PQI261 PGL4:PGM261 OWP4:OWQ261 OMT4:OMU261 OCX4:OCY261 NTB4:NTC261 NJF4:NJG261 MZJ4:MZK261 MPN4:MPO261 MFR4:MFS261 LVV4:LVW261 LLZ4:LMA261 LCD4:LCE261 KSH4:KSI261 KIL4:KIM261 JYP4:JYQ261 JOT4:JOU261 JEX4:JEY261 IVB4:IVC261 ILF4:ILG261 IBJ4:IBK261 HRN4:HRO261 HHR4:HHS261 GXV4:GXW261 GNZ4:GOA261 GED4:GEE261 FUH4:FUI261 FKL4:FKM261 FAP4:FAQ261 EQT4:EQU261 EGX4:EGY261 DXB4:DXC261 DNF4:DNG261 DDJ4:DDK261 CTN4:CTO261 CJR4:CJS261 BZV4:BZW261 BPZ4:BQA261 BGD4:BGE261 AWH4:AWI261 AML4:AMM261 ACP4:ACQ261 ST4:SU261 IX4:IY261">
+      <formula1>Status</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"male,female"</formula1>
-    </dataValidation>
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Employee,Spouse,Domestic Partner,Child"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4">
-      <formula1>"home,work"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
